--- a/medicine/Psychotrope/John_Jameson_&_Son/John_Jameson_&_Son.xlsx
+++ b/medicine/Psychotrope/John_Jameson_&_Son/John_Jameson_&_Son.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Jameson_%26_Son</t>
+          <t>John_Jameson_&amp;_Son</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 John Jameson &amp; Sons est une entreprise irlandaise de production et de distribution d’irish whiskey. Sa distillerie située dans Bow Street à Dublin était une des plus importantes d’Irlande. Elle a été créée en 1780 par John Jameson. La distillerie n’existe plus aujourd’hui, elle a été transformée en musée du whiskey et le whiskey Jameson et toutes les autres marques de l’entreprise sont distillés dans la grande distillerie ultra moderne de Midleton.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Jameson_%26_Son</t>
+          <t>John_Jameson_&amp;_Son</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’entreprise a été fondée en 1780  par John Jameson avec l’acquisition d’une distillerie dans Bow Street à Dublin. Il devient rapidement une des six grandes distilleries de Dublin. John Jameson est un homme d’affaires écossais. Quand il achète la distillerie, celle-ci produit déjà du whiskey, 30 000 gallons par an. Moins de vingt ans plus tard elle est la deuxième plus grande distillerie du monde : elle produit alors 1 million de gallons par an. Dublin est à cette époque l’épicentre de la production mondiale du whisky. Ce dernier est le deuxième spiritueux le plus populaire après le rhum. En 1805, Jameson devient le plus grand producteur mondial de whisky.
 Les événements historiques ont marqué l’entreprise et mis à mal son économie. Le Mouvement de tempérance en Irlande  a eu un impact énorme au niveau national et a fortement fait chuter la consommation de whiskey. Mais les deux faits qui ont le plus touché Jameson &amp; son sont la guerre d’indépendance irlandaise et  la querelle avec les britanniques sur les échanges extérieurs. Les exportations de Jameson étaient principalement effectuées à l’intérieur du Commonwealth et l’exclusion de l’Irlande a provoqué un recul massif des ventes d’irish whiskey. La mise en place peu après de la politique de prohibition aux États-Unis a porté le coup de grâce à l’industrie irlandaise du whiskey. Alors que les marques écossaises profitaient de la proximité du Canada pour continuer à inonder le marché américain devenu clandestin, Jameson et les autres entreprises irlandaises en étaient exclues pour de nombreuses années.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Jameson_%26_Son</t>
+          <t>John_Jameson_&amp;_Son</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Les marques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crested Ten
 Jameson 12 Year Old Special Reserve (anciennement Jameson 1780)
